--- a/Stats/NUMBEO_Quality_of_Life_Index.xlsx
+++ b/Stats/NUMBEO_Quality_of_Life_Index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="290">
   <si>
     <t>Rank</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Climate Index</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>The Hague (Den Haag), Netherlands</t>
@@ -1238,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K279"/>
+  <dimension ref="A1:K302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1284,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>229.9</v>
@@ -1319,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>229.1</v>
@@ -1354,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>226.6</v>
@@ -1389,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>222.3</v>
@@ -1424,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>216.7</v>
@@ -1459,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>215.5</v>
@@ -1494,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>213.5</v>
@@ -1529,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>210.9</v>
@@ -1564,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>207.1</v>
@@ -1599,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>206.9</v>
@@ -1634,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>206</v>
@@ -1669,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>205.1</v>
@@ -1704,7 +1707,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>204.6</v>
@@ -1739,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>204.1</v>
@@ -1774,7 +1777,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>203.5</v>
@@ -1809,7 +1812,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>200</v>
@@ -1844,7 +1847,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>199.4</v>
@@ -1879,7 +1882,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>199.3</v>
@@ -1914,7 +1917,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>198.6</v>
@@ -1949,7 +1952,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>198.3</v>
@@ -1984,7 +1987,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>198.1</v>
@@ -2019,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>197.1</v>
@@ -2054,7 +2057,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>196.2</v>
@@ -2089,7 +2092,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>196</v>
@@ -2124,7 +2127,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>195.5</v>
@@ -2159,7 +2162,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>195.5</v>
@@ -2194,7 +2197,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>194.1</v>
@@ -2229,7 +2232,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>193.8</v>
@@ -2264,7 +2267,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>193.7</v>
@@ -2299,7 +2302,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>193.7</v>
@@ -2334,7 +2337,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>193.6</v>
@@ -2369,7 +2372,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>193.2</v>
@@ -2404,7 +2407,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>193.2</v>
@@ -2439,7 +2442,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>193.1</v>
@@ -2474,7 +2477,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>193</v>
@@ -2509,7 +2512,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>192.5</v>
@@ -2544,7 +2547,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>191.8</v>
@@ -2579,7 +2582,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>191.4</v>
@@ -2614,7 +2617,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>191.3</v>
@@ -2649,7 +2652,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <v>191.1</v>
@@ -2684,7 +2687,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42">
         <v>190.8</v>
@@ -2719,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43">
         <v>190.2</v>
@@ -2754,7 +2757,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>190</v>
@@ -2789,7 +2792,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>189</v>
@@ -2824,7 +2827,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>188.9</v>
@@ -2859,7 +2862,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>188.9</v>
@@ -2894,7 +2897,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>188.7</v>
@@ -2929,7 +2932,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>188.6</v>
@@ -2964,7 +2967,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>188.4</v>
@@ -2999,7 +3002,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>188.4</v>
@@ -3034,7 +3037,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>188</v>
@@ -3069,7 +3072,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <v>187.4</v>
@@ -3104,7 +3107,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>187.2</v>
@@ -3139,7 +3142,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>187.2</v>
@@ -3174,7 +3177,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>186.8</v>
@@ -3209,7 +3212,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>186.2</v>
@@ -3244,7 +3247,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>186</v>
@@ -3279,7 +3282,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>185.4</v>
@@ -3314,7 +3317,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60">
         <v>185</v>
@@ -3349,7 +3352,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61">
         <v>184.9</v>
@@ -3384,7 +3387,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62">
         <v>184.7</v>
@@ -3419,7 +3422,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63">
         <v>183.2</v>
@@ -3454,7 +3457,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64">
         <v>182.4</v>
@@ -3489,7 +3492,7 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65">
         <v>181</v>
@@ -3524,7 +3527,7 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <v>181</v>
@@ -3559,7 +3562,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67">
         <v>180.3</v>
@@ -3594,7 +3597,7 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68">
         <v>180.2</v>
@@ -3629,7 +3632,7 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69">
         <v>179.9</v>
@@ -3664,7 +3667,7 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C70">
         <v>179.6</v>
@@ -3699,7 +3702,7 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71">
         <v>179.6</v>
@@ -3734,7 +3737,7 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72">
         <v>178.9</v>
@@ -3769,7 +3772,7 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73">
         <v>178.4</v>
@@ -3804,7 +3807,7 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74">
         <v>178.3</v>
@@ -3839,7 +3842,7 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75">
         <v>178.2</v>
@@ -3874,7 +3877,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76">
         <v>178.2</v>
@@ -3909,7 +3912,7 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77">
         <v>178.1</v>
@@ -3944,7 +3947,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78">
         <v>177.4</v>
@@ -3979,7 +3982,7 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79">
         <v>177.3</v>
@@ -4014,7 +4017,7 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C80">
         <v>177.2</v>
@@ -4049,7 +4052,7 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81">
         <v>177</v>
@@ -4084,7 +4087,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82">
         <v>175.9</v>
@@ -4119,7 +4122,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83">
         <v>174.9</v>
@@ -4154,7 +4157,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C84">
         <v>174.5</v>
@@ -4189,7 +4192,7 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85">
         <v>174.5</v>
@@ -4224,7 +4227,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C86">
         <v>174.3</v>
@@ -4259,7 +4262,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C87">
         <v>174.1</v>
@@ -4294,7 +4297,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C88">
         <v>174</v>
@@ -4329,7 +4332,7 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89">
         <v>173.6</v>
@@ -4364,7 +4367,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90">
         <v>173.6</v>
@@ -4399,7 +4402,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91">
         <v>173.6</v>
@@ -4434,7 +4437,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C92">
         <v>173.4</v>
@@ -4469,7 +4472,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93">
         <v>173</v>
@@ -4504,7 +4507,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C94">
         <v>172.3</v>
@@ -4539,7 +4542,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95">
         <v>172.3</v>
@@ -4574,7 +4577,7 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96">
         <v>171.1</v>
@@ -4609,7 +4612,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97">
         <v>170.6</v>
@@ -4644,7 +4647,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C98">
         <v>169.8</v>
@@ -4679,7 +4682,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99">
         <v>169.1</v>
@@ -4714,7 +4717,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100">
         <v>169.1</v>
@@ -4749,7 +4752,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C101">
         <v>167.2</v>
@@ -4784,7 +4787,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C102">
         <v>167.1</v>
@@ -4819,7 +4822,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103">
         <v>167.1</v>
@@ -4854,7 +4857,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104">
         <v>165.8</v>
@@ -4889,7 +4892,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105">
         <v>165.7</v>
@@ -4924,7 +4927,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106">
         <v>165.7</v>
@@ -4959,7 +4962,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C107">
         <v>165.3</v>
@@ -4994,7 +4997,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C108">
         <v>164</v>
@@ -5029,7 +5032,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C109">
         <v>164</v>
@@ -5064,7 +5067,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C110">
         <v>163.7</v>
@@ -5099,7 +5102,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C111">
         <v>163.5</v>
@@ -5134,7 +5137,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C112">
         <v>163.1</v>
@@ -5169,7 +5172,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113">
         <v>163</v>
@@ -5204,7 +5207,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C114">
         <v>162.8</v>
@@ -5239,7 +5242,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C115">
         <v>162.4</v>
@@ -5274,7 +5277,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C116">
         <v>162.4</v>
@@ -5309,7 +5312,7 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C117">
         <v>162.3</v>
@@ -5344,7 +5347,7 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118">
         <v>161.9</v>
@@ -5379,7 +5382,7 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C119">
         <v>159.8</v>
@@ -5414,7 +5417,7 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C120">
         <v>158.8</v>
@@ -5449,7 +5452,7 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121">
         <v>158.7</v>
@@ -5484,7 +5487,7 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122">
         <v>158.5</v>
@@ -5519,7 +5522,7 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123">
         <v>158.4</v>
@@ -5554,7 +5557,7 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C124">
         <v>158.2</v>
@@ -5589,7 +5592,7 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125">
         <v>157.7</v>
@@ -5624,7 +5627,7 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126">
         <v>157.4</v>
@@ -5659,7 +5662,7 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C127">
         <v>157.1</v>
@@ -5694,7 +5697,7 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C128">
         <v>155.9</v>
@@ -5729,7 +5732,7 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C129">
         <v>155.7</v>
@@ -5764,7 +5767,7 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C130">
         <v>155.5</v>
@@ -5799,7 +5802,7 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C131">
         <v>155.1</v>
@@ -5834,7 +5837,7 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C132">
         <v>155</v>
@@ -5869,7 +5872,7 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C133">
         <v>153</v>
@@ -5904,7 +5907,7 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C134">
         <v>152.9</v>
@@ -5939,7 +5942,7 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C135">
         <v>152.7</v>
@@ -5974,7 +5977,7 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C136">
         <v>152.1</v>
@@ -6009,7 +6012,7 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C137">
         <v>152</v>
@@ -6044,7 +6047,7 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C138">
         <v>151.8</v>
@@ -6079,7 +6082,7 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C139">
         <v>151.3</v>
@@ -6114,7 +6117,7 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C140">
         <v>151.2</v>
@@ -6149,7 +6152,7 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C141">
         <v>150.8</v>
@@ -6184,7 +6187,7 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C142">
         <v>150.7</v>
@@ -6219,7 +6222,7 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C143">
         <v>150.6</v>
@@ -6254,7 +6257,7 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C144">
         <v>149.6</v>
@@ -6289,7 +6292,7 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C145">
         <v>149.3</v>
@@ -6324,7 +6327,7 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C146">
         <v>148.7</v>
@@ -6359,7 +6362,7 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C147">
         <v>148.5</v>
@@ -6394,7 +6397,7 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C148">
         <v>148.1</v>
@@ -6429,7 +6432,7 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149">
         <v>147.1</v>
@@ -6464,7 +6467,7 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C150">
         <v>147</v>
@@ -6499,7 +6502,7 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C151">
         <v>146.9</v>
@@ -6534,7 +6537,7 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C152">
         <v>146.9</v>
@@ -6569,7 +6572,7 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C153">
         <v>146.6</v>
@@ -6604,7 +6607,7 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C154">
         <v>146.4</v>
@@ -6639,7 +6642,7 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C155">
         <v>145.1</v>
@@ -6674,7 +6677,7 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C156">
         <v>144.1</v>
@@ -6709,7 +6712,7 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C157">
         <v>144</v>
@@ -6744,7 +6747,7 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C158">
         <v>143.4</v>
@@ -6779,7 +6782,7 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C159">
         <v>143.1</v>
@@ -6814,7 +6817,7 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C160">
         <v>142.6</v>
@@ -6849,7 +6852,7 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C161">
         <v>142.5</v>
@@ -6884,7 +6887,7 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C162">
         <v>142.4</v>
@@ -6919,7 +6922,7 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C163">
         <v>140.7</v>
@@ -6954,7 +6957,7 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C164">
         <v>140.7</v>
@@ -6989,7 +6992,7 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C165">
         <v>139.7</v>
@@ -7024,7 +7027,7 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C166">
         <v>139.1</v>
@@ -7059,7 +7062,7 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C167">
         <v>138.9</v>
@@ -7094,7 +7097,7 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C168">
         <v>138.6</v>
@@ -7129,7 +7132,7 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C169">
         <v>138.5</v>
@@ -7164,7 +7167,7 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C170">
         <v>138.1</v>
@@ -7199,7 +7202,7 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C171">
         <v>137.6</v>
@@ -7234,7 +7237,7 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C172">
         <v>137.5</v>
@@ -7269,7 +7272,7 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C173">
         <v>136.9</v>
@@ -7304,7 +7307,7 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C174">
         <v>136.5</v>
@@ -7339,7 +7342,7 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C175">
         <v>136.2</v>
@@ -7374,7 +7377,7 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C176">
         <v>135.8</v>
@@ -7409,7 +7412,7 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C177">
         <v>135.3</v>
@@ -7444,7 +7447,7 @@
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C178">
         <v>134.4</v>
@@ -7479,7 +7482,7 @@
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C179">
         <v>134.3</v>
@@ -7514,7 +7517,7 @@
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C180">
         <v>134.1</v>
@@ -7549,7 +7552,7 @@
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C181">
         <v>133.5</v>
@@ -7584,7 +7587,7 @@
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C182">
         <v>133.1</v>
@@ -7619,7 +7622,7 @@
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C183">
         <v>132.8</v>
@@ -7654,7 +7657,7 @@
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C184">
         <v>132.6</v>
@@ -7689,7 +7692,7 @@
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C185">
         <v>132</v>
@@ -7724,7 +7727,7 @@
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C186">
         <v>131.4</v>
@@ -7759,7 +7762,7 @@
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C187">
         <v>131.3</v>
@@ -7794,7 +7797,7 @@
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C188">
         <v>129.7</v>
@@ -7829,7 +7832,7 @@
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C189">
         <v>128.8</v>
@@ -7864,7 +7867,7 @@
         <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C190">
         <v>128.1</v>
@@ -7899,7 +7902,7 @@
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C191">
         <v>126.8</v>
@@ -7934,7 +7937,7 @@
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C192">
         <v>126.7</v>
@@ -7969,7 +7972,7 @@
         <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C193">
         <v>126.3</v>
@@ -8004,7 +8007,7 @@
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C194">
         <v>125.9</v>
@@ -8039,7 +8042,7 @@
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C195">
         <v>125.5</v>
@@ -8074,7 +8077,7 @@
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C196">
         <v>124.3</v>
@@ -8109,7 +8112,7 @@
         <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C197">
         <v>124.2</v>
@@ -8144,7 +8147,7 @@
         <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C198">
         <v>123.3</v>
@@ -8179,7 +8182,7 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C199">
         <v>123.2</v>
@@ -8214,7 +8217,7 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C200">
         <v>122.1</v>
@@ -8249,7 +8252,7 @@
         <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C201">
         <v>121.3</v>
@@ -8284,7 +8287,7 @@
         <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C202">
         <v>121.2</v>
@@ -8319,7 +8322,7 @@
         <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C203">
         <v>120.5</v>
@@ -8354,7 +8357,7 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C204">
         <v>120.4</v>
@@ -8389,7 +8392,7 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C205">
         <v>120.3</v>
@@ -8424,7 +8427,7 @@
         <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C206">
         <v>120.1</v>
@@ -8459,7 +8462,7 @@
         <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C207">
         <v>120.1</v>
@@ -8494,7 +8497,7 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C208">
         <v>119.7</v>
@@ -8529,7 +8532,7 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C209">
         <v>119.1</v>
@@ -8564,7 +8567,7 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C210">
         <v>118.7</v>
@@ -8599,7 +8602,7 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C211">
         <v>118.2</v>
@@ -8634,7 +8637,7 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C212">
         <v>116.1</v>
@@ -8669,7 +8672,7 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C213">
         <v>116</v>
@@ -8704,7 +8707,7 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C214">
         <v>115.4</v>
@@ -8739,7 +8742,7 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C215">
         <v>115.2</v>
@@ -8774,7 +8777,7 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C216">
         <v>115.1</v>
@@ -8809,7 +8812,7 @@
         <v>223</v>
       </c>
       <c r="B217" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C217">
         <v>114</v>
@@ -8844,7 +8847,7 @@
         <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C218">
         <v>112.9</v>
@@ -8879,7 +8882,7 @@
         <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C219">
         <v>112.2</v>
@@ -8914,7 +8917,7 @@
         <v>226</v>
       </c>
       <c r="B220" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C220">
         <v>107.9</v>
@@ -8949,7 +8952,7 @@
         <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C221">
         <v>106.5</v>
@@ -8984,7 +8987,7 @@
         <v>228</v>
       </c>
       <c r="B222" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C222">
         <v>106.3</v>
@@ -9019,7 +9022,7 @@
         <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C223">
         <v>105.8</v>
@@ -9054,7 +9057,7 @@
         <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C224">
         <v>103.2</v>
@@ -9089,7 +9092,7 @@
         <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C225">
         <v>103.2</v>
@@ -9124,7 +9127,7 @@
         <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C226">
         <v>100.1</v>
@@ -9159,7 +9162,7 @@
         <v>233</v>
       </c>
       <c r="B227" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C227">
         <v>100</v>
@@ -9194,7 +9197,7 @@
         <v>234</v>
       </c>
       <c r="B228" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C228">
         <v>99.40000000000001</v>
@@ -9229,7 +9232,7 @@
         <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C229">
         <v>98.5</v>
@@ -9264,7 +9267,7 @@
         <v>236</v>
       </c>
       <c r="B230" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C230">
         <v>98.09999999999999</v>
@@ -9299,7 +9302,7 @@
         <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C231">
         <v>97.90000000000001</v>
@@ -9334,7 +9337,7 @@
         <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C232">
         <v>97.90000000000001</v>
@@ -9369,7 +9372,7 @@
         <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C233">
         <v>97.09999999999999</v>
@@ -9404,7 +9407,7 @@
         <v>240</v>
       </c>
       <c r="B234" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C234">
         <v>97</v>
@@ -9439,7 +9442,7 @@
         <v>241</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C235">
         <v>96.59999999999999</v>
@@ -9474,7 +9477,7 @@
         <v>242</v>
       </c>
       <c r="B236" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C236">
         <v>94.7</v>
@@ -9509,7 +9512,7 @@
         <v>243</v>
       </c>
       <c r="B237" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C237">
         <v>93.3</v>
@@ -9544,7 +9547,7 @@
         <v>244</v>
       </c>
       <c r="B238" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C238">
         <v>93</v>
@@ -9579,7 +9582,7 @@
         <v>245</v>
       </c>
       <c r="B239" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C239">
         <v>92.8</v>
@@ -9614,7 +9617,7 @@
         <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C240">
         <v>92.09999999999999</v>
@@ -9649,7 +9652,7 @@
         <v>247</v>
       </c>
       <c r="B241" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C241">
         <v>91.3</v>
@@ -9684,7 +9687,7 @@
         <v>248</v>
       </c>
       <c r="B242" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C242">
         <v>90.8</v>
@@ -9719,7 +9722,7 @@
         <v>249</v>
       </c>
       <c r="B243" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C243">
         <v>90.2</v>
@@ -9754,7 +9757,7 @@
         <v>250</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C244">
         <v>88.09999999999999</v>
@@ -9789,7 +9792,7 @@
         <v>251</v>
       </c>
       <c r="B245" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C245">
         <v>87.59999999999999</v>
@@ -9824,7 +9827,7 @@
         <v>252</v>
       </c>
       <c r="B246" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C246">
         <v>86.7</v>
@@ -9859,7 +9862,7 @@
         <v>253</v>
       </c>
       <c r="B247" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C247">
         <v>85</v>
@@ -9894,7 +9897,7 @@
         <v>254</v>
       </c>
       <c r="B248" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C248">
         <v>82.8</v>
@@ -9929,7 +9932,7 @@
         <v>255</v>
       </c>
       <c r="B249" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C249">
         <v>79</v>
@@ -9964,7 +9967,7 @@
         <v>256</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C250">
         <v>77</v>
@@ -9999,7 +10002,7 @@
         <v>257</v>
       </c>
       <c r="B251" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C251">
         <v>75.8</v>
@@ -10034,7 +10037,7 @@
         <v>258</v>
       </c>
       <c r="B252" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C252">
         <v>72.3</v>
@@ -10069,7 +10072,7 @@
         <v>259</v>
       </c>
       <c r="B253" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C253">
         <v>64.7</v>
@@ -10104,7 +10107,7 @@
         <v>260</v>
       </c>
       <c r="B254" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C254">
         <v>64.40000000000001</v>
@@ -10139,7 +10142,7 @@
         <v>261</v>
       </c>
       <c r="B255" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C255">
         <v>63.2</v>
@@ -10174,7 +10177,7 @@
         <v>262</v>
       </c>
       <c r="B256" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C256">
         <v>14.4</v>
@@ -10206,7 +10209,7 @@
     </row>
     <row r="257" spans="2:11">
       <c r="B257" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C257">
         <v>167.67</v>
@@ -10238,7 +10241,7 @@
     </row>
     <row r="258" spans="2:11">
       <c r="B258" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C258">
         <v>174.61</v>
@@ -10270,7 +10273,7 @@
     </row>
     <row r="259" spans="2:11">
       <c r="B259" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C259">
         <v>175.98</v>
@@ -10302,7 +10305,7 @@
     </row>
     <row r="260" spans="2:11">
       <c r="B260" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C260">
         <v>206.17</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="261" spans="2:11">
       <c r="B261" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C261">
         <v>199.2</v>
@@ -10366,7 +10369,7 @@
     </row>
     <row r="262" spans="2:11">
       <c r="B262" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C262">
         <v>162.92</v>
@@ -10398,7 +10401,7 @@
     </row>
     <row r="263" spans="2:11">
       <c r="B263" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C263">
         <v>191.62</v>
@@ -10430,7 +10433,7 @@
     </row>
     <row r="264" spans="2:11">
       <c r="B264" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C264">
         <v>189.06</v>
@@ -10462,7 +10465,7 @@
     </row>
     <row r="265" spans="2:11">
       <c r="B265" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C265">
         <v>192.6</v>
@@ -10494,7 +10497,7 @@
     </row>
     <row r="266" spans="2:11">
       <c r="B266" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C266">
         <v>189.31</v>
@@ -10526,7 +10529,7 @@
     </row>
     <row r="267" spans="2:11">
       <c r="B267" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C267">
         <v>186.86</v>
@@ -10558,7 +10561,7 @@
     </row>
     <row r="268" spans="2:11">
       <c r="B268" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C268">
         <v>192.77</v>
@@ -10590,7 +10593,7 @@
     </row>
     <row r="269" spans="2:11">
       <c r="B269" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C269">
         <v>182.03</v>
@@ -10622,7 +10625,7 @@
     </row>
     <row r="270" spans="2:11">
       <c r="B270" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C270">
         <v>198.9</v>
@@ -10654,7 +10657,7 @@
     </row>
     <row r="271" spans="2:11">
       <c r="B271" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C271">
         <v>205.62</v>
@@ -10686,7 +10689,7 @@
     </row>
     <row r="272" spans="2:11">
       <c r="B272" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C272">
         <v>176.67</v>
@@ -10716,9 +10719,9 @@
         <v>73.11</v>
       </c>
     </row>
-    <row r="273" spans="2:11">
+    <row r="273" spans="1:11">
       <c r="B273" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C273">
         <v>168.1</v>
@@ -10748,9 +10751,9 @@
         <v>84.42</v>
       </c>
     </row>
-    <row r="274" spans="2:11">
+    <row r="274" spans="1:11">
       <c r="B274" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C274">
         <v>183.19</v>
@@ -10780,9 +10783,9 @@
         <v>83.02</v>
       </c>
     </row>
-    <row r="275" spans="2:11">
+    <row r="275" spans="1:11">
       <c r="B275" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C275">
         <v>194.37</v>
@@ -10812,9 +10815,9 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="276" spans="2:11">
+    <row r="276" spans="1:11">
       <c r="B276" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C276">
         <v>190.45</v>
@@ -10844,9 +10847,9 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="277" spans="2:11">
+    <row r="277" spans="1:11">
       <c r="B277" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C277">
         <v>194.7</v>
@@ -10876,9 +10879,9 @@
         <v>75.08</v>
       </c>
     </row>
-    <row r="278" spans="2:11">
+    <row r="278" spans="1:11">
       <c r="B278" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C278">
         <v>139.46</v>
@@ -10908,9 +10911,9 @@
         <v>66.03</v>
       </c>
     </row>
-    <row r="279" spans="2:11">
+    <row r="279" spans="1:11">
       <c r="B279" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C279">
         <v>187.41</v>
@@ -10937,6 +10940,811 @@
         <v>45.53</v>
       </c>
       <c r="K279">
+        <v>78.61</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
+      <c r="A280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" t="s">
+        <v>267</v>
+      </c>
+      <c r="C280">
+        <v>167.67</v>
+      </c>
+      <c r="D280">
+        <v>140.33</v>
+      </c>
+      <c r="E280">
+        <v>27.62</v>
+      </c>
+      <c r="F280">
+        <v>76.36</v>
+      </c>
+      <c r="G280">
+        <v>68.08</v>
+      </c>
+      <c r="H280">
+        <v>2.55</v>
+      </c>
+      <c r="I280">
+        <v>31.71</v>
+      </c>
+      <c r="J280">
+        <v>52.01</v>
+      </c>
+      <c r="K280">
+        <v>81.23999999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
+      <c r="A281" t="s">
+        <v>11</v>
+      </c>
+      <c r="B281" t="s">
+        <v>268</v>
+      </c>
+      <c r="C281">
+        <v>174.61</v>
+      </c>
+      <c r="D281">
+        <v>142.95</v>
+      </c>
+      <c r="E281">
+        <v>33.24</v>
+      </c>
+      <c r="F281">
+        <v>63.83</v>
+      </c>
+      <c r="G281">
+        <v>60.21</v>
+      </c>
+      <c r="H281">
+        <v>2.56</v>
+      </c>
+      <c r="I281">
+        <v>30.28</v>
+      </c>
+      <c r="J281">
+        <v>31.98</v>
+      </c>
+      <c r="K281">
+        <v>60.96</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
+      <c r="A282" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" t="s">
+        <v>269</v>
+      </c>
+      <c r="C282">
+        <v>175.98</v>
+      </c>
+      <c r="D282">
+        <v>150.09</v>
+      </c>
+      <c r="E282">
+        <v>52.49</v>
+      </c>
+      <c r="F282">
+        <v>66.61</v>
+      </c>
+      <c r="G282">
+        <v>84.81</v>
+      </c>
+      <c r="H282">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="I282">
+        <v>38.3</v>
+      </c>
+      <c r="J282">
+        <v>49.06</v>
+      </c>
+      <c r="K282">
+        <v>95.53</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
+      <c r="A283" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283" t="s">
+        <v>270</v>
+      </c>
+      <c r="C283">
+        <v>206.17</v>
+      </c>
+      <c r="D283">
+        <v>158.36</v>
+      </c>
+      <c r="E283">
+        <v>57.21</v>
+      </c>
+      <c r="F283">
+        <v>82.86</v>
+      </c>
+      <c r="G283">
+        <v>62.01</v>
+      </c>
+      <c r="H283">
+        <v>3.11</v>
+      </c>
+      <c r="I283">
+        <v>23.68</v>
+      </c>
+      <c r="J283">
+        <v>27.59</v>
+      </c>
+      <c r="K283">
+        <v>61.88</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="A284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>271</v>
+      </c>
+      <c r="C284">
+        <v>199.2</v>
+      </c>
+      <c r="D284">
+        <v>166.31</v>
+      </c>
+      <c r="E284">
+        <v>64.64</v>
+      </c>
+      <c r="F284">
+        <v>67.16</v>
+      </c>
+      <c r="G284">
+        <v>61.56</v>
+      </c>
+      <c r="H284">
+        <v>3.93</v>
+      </c>
+      <c r="I284">
+        <v>31.93</v>
+      </c>
+      <c r="J284">
+        <v>33.25</v>
+      </c>
+      <c r="K284">
+        <v>65.11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" t="s">
+        <v>272</v>
+      </c>
+      <c r="C285">
+        <v>162.92</v>
+      </c>
+      <c r="D285">
+        <v>155.01</v>
+      </c>
+      <c r="E285">
+        <v>60.11</v>
+      </c>
+      <c r="F285">
+        <v>42.46</v>
+      </c>
+      <c r="G285">
+        <v>73.72</v>
+      </c>
+      <c r="H285">
+        <v>5.25</v>
+      </c>
+      <c r="I285">
+        <v>41.55</v>
+      </c>
+      <c r="J285">
+        <v>58.98</v>
+      </c>
+      <c r="K285">
+        <v>79.78</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" t="s">
+        <v>273</v>
+      </c>
+      <c r="C286">
+        <v>191.62</v>
+      </c>
+      <c r="D286">
+        <v>153.93</v>
+      </c>
+      <c r="E286">
+        <v>53.74</v>
+      </c>
+      <c r="F286">
+        <v>62.54</v>
+      </c>
+      <c r="G286">
+        <v>69.75</v>
+      </c>
+      <c r="H286">
+        <v>4.1</v>
+      </c>
+      <c r="I286">
+        <v>23.32</v>
+      </c>
+      <c r="J286">
+        <v>29.8</v>
+      </c>
+      <c r="K286">
+        <v>62.28</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="A287" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" t="s">
+        <v>274</v>
+      </c>
+      <c r="C287">
+        <v>189.06</v>
+      </c>
+      <c r="D287">
+        <v>146.56</v>
+      </c>
+      <c r="E287">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F287">
+        <v>62.21</v>
+      </c>
+      <c r="G287">
+        <v>62.52</v>
+      </c>
+      <c r="H287">
+        <v>2.67</v>
+      </c>
+      <c r="I287">
+        <v>25.92</v>
+      </c>
+      <c r="J287">
+        <v>45.49</v>
+      </c>
+      <c r="K287">
+        <v>72.05</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
+      <c r="A288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288" t="s">
+        <v>275</v>
+      </c>
+      <c r="C288">
+        <v>192.6</v>
+      </c>
+      <c r="D288">
+        <v>159.96</v>
+      </c>
+      <c r="E288">
+        <v>66.47</v>
+      </c>
+      <c r="F288">
+        <v>68.62</v>
+      </c>
+      <c r="G288">
+        <v>65.29000000000001</v>
+      </c>
+      <c r="H288">
+        <v>3.1</v>
+      </c>
+      <c r="I288">
+        <v>35.23</v>
+      </c>
+      <c r="J288">
+        <v>33.06</v>
+      </c>
+      <c r="K288">
+        <v>51.64</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" t="s">
+        <v>276</v>
+      </c>
+      <c r="C289">
+        <v>189.31</v>
+      </c>
+      <c r="D289">
+        <v>147.64</v>
+      </c>
+      <c r="E289">
+        <v>53.48</v>
+      </c>
+      <c r="F289">
+        <v>69.20999999999999</v>
+      </c>
+      <c r="G289">
+        <v>69.25</v>
+      </c>
+      <c r="H289">
+        <v>3.83</v>
+      </c>
+      <c r="I289">
+        <v>35.85</v>
+      </c>
+      <c r="J289">
+        <v>35.26</v>
+      </c>
+      <c r="K289">
+        <v>84.05</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" t="s">
+        <v>277</v>
+      </c>
+      <c r="C290">
+        <v>186.86</v>
+      </c>
+      <c r="D290">
+        <v>147.19</v>
+      </c>
+      <c r="E290">
+        <v>51.81</v>
+      </c>
+      <c r="F290">
+        <v>76.23</v>
+      </c>
+      <c r="G290">
+        <v>70.69</v>
+      </c>
+      <c r="H290">
+        <v>3.89</v>
+      </c>
+      <c r="I290">
+        <v>27.17</v>
+      </c>
+      <c r="J290">
+        <v>37.44</v>
+      </c>
+      <c r="K290">
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>278</v>
+      </c>
+      <c r="C291">
+        <v>192.77</v>
+      </c>
+      <c r="D291">
+        <v>151.31</v>
+      </c>
+      <c r="E291">
+        <v>44.14</v>
+      </c>
+      <c r="F291">
+        <v>65.97</v>
+      </c>
+      <c r="G291">
+        <v>67.12</v>
+      </c>
+      <c r="H291">
+        <v>3</v>
+      </c>
+      <c r="I291">
+        <v>26.12</v>
+      </c>
+      <c r="J291">
+        <v>23.72</v>
+      </c>
+      <c r="K291">
+        <v>67.12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
+      <c r="A292" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292" t="s">
+        <v>279</v>
+      </c>
+      <c r="C292">
+        <v>182.03</v>
+      </c>
+      <c r="D292">
+        <v>147.01</v>
+      </c>
+      <c r="E292">
+        <v>61.83</v>
+      </c>
+      <c r="F292">
+        <v>72.84999999999999</v>
+      </c>
+      <c r="G292">
+        <v>72.06999999999999</v>
+      </c>
+      <c r="H292">
+        <v>2.54</v>
+      </c>
+      <c r="I292">
+        <v>37.08</v>
+      </c>
+      <c r="J292">
+        <v>48.89</v>
+      </c>
+      <c r="K292">
+        <v>72.13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>280</v>
+      </c>
+      <c r="C293">
+        <v>198.9</v>
+      </c>
+      <c r="D293">
+        <v>154.52</v>
+      </c>
+      <c r="E293">
+        <v>50.63</v>
+      </c>
+      <c r="F293">
+        <v>69.45</v>
+      </c>
+      <c r="G293">
+        <v>63.18</v>
+      </c>
+      <c r="H293">
+        <v>2.73</v>
+      </c>
+      <c r="I293">
+        <v>29.41</v>
+      </c>
+      <c r="J293">
+        <v>27.19</v>
+      </c>
+      <c r="K293">
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294" t="s">
+        <v>281</v>
+      </c>
+      <c r="C294">
+        <v>205.62</v>
+      </c>
+      <c r="D294">
+        <v>161.62</v>
+      </c>
+      <c r="E294">
+        <v>51.88</v>
+      </c>
+      <c r="F294">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="G294">
+        <v>63.9</v>
+      </c>
+      <c r="H294">
+        <v>3.02</v>
+      </c>
+      <c r="I294">
+        <v>22.74</v>
+      </c>
+      <c r="J294">
+        <v>31.31</v>
+      </c>
+      <c r="K294">
+        <v>81.27</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
+      <c r="A295" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" t="s">
+        <v>282</v>
+      </c>
+      <c r="C295">
+        <v>176.67</v>
+      </c>
+      <c r="D295">
+        <v>133.03</v>
+      </c>
+      <c r="E295">
+        <v>36.59</v>
+      </c>
+      <c r="F295">
+        <v>78.48999999999999</v>
+      </c>
+      <c r="G295">
+        <v>62.94</v>
+      </c>
+      <c r="H295">
+        <v>1.75</v>
+      </c>
+      <c r="I295">
+        <v>32.93</v>
+      </c>
+      <c r="J295">
+        <v>39.13</v>
+      </c>
+      <c r="K295">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
+      <c r="A296" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296" t="s">
+        <v>283</v>
+      </c>
+      <c r="C296">
+        <v>168.1</v>
+      </c>
+      <c r="D296">
+        <v>152.93</v>
+      </c>
+      <c r="E296">
+        <v>22.06</v>
+      </c>
+      <c r="F296">
+        <v>48.23</v>
+      </c>
+      <c r="G296">
+        <v>62.07</v>
+      </c>
+      <c r="H296">
+        <v>2.07</v>
+      </c>
+      <c r="I296">
+        <v>23.39</v>
+      </c>
+      <c r="J296">
+        <v>47.34</v>
+      </c>
+      <c r="K296">
+        <v>84.42</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
+      <c r="A297" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" t="s">
+        <v>284</v>
+      </c>
+      <c r="C297">
+        <v>183.19</v>
+      </c>
+      <c r="D297">
+        <v>149.84</v>
+      </c>
+      <c r="E297">
+        <v>50.9</v>
+      </c>
+      <c r="F297">
+        <v>62.07</v>
+      </c>
+      <c r="G297">
+        <v>68.72</v>
+      </c>
+      <c r="H297">
+        <v>3.64</v>
+      </c>
+      <c r="I297">
+        <v>38.5</v>
+      </c>
+      <c r="J297">
+        <v>37.39</v>
+      </c>
+      <c r="K297">
+        <v>83.02</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
+      <c r="A298" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298" t="s">
+        <v>285</v>
+      </c>
+      <c r="C298">
+        <v>194.37</v>
+      </c>
+      <c r="D298">
+        <v>186</v>
+      </c>
+      <c r="E298">
+        <v>39.65</v>
+      </c>
+      <c r="F298">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="G298">
+        <v>62.8</v>
+      </c>
+      <c r="H298">
+        <v>1.89</v>
+      </c>
+      <c r="I298">
+        <v>29.54</v>
+      </c>
+      <c r="J298">
+        <v>43.17</v>
+      </c>
+      <c r="K298">
+        <v>69.92</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
+      <c r="A299" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299" t="s">
+        <v>286</v>
+      </c>
+      <c r="C299">
+        <v>190.45</v>
+      </c>
+      <c r="D299">
+        <v>174.58</v>
+      </c>
+      <c r="E299">
+        <v>30.29</v>
+      </c>
+      <c r="F299">
+        <v>71.55</v>
+      </c>
+      <c r="G299">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="H299">
+        <v>2.03</v>
+      </c>
+      <c r="I299">
+        <v>29.22</v>
+      </c>
+      <c r="J299">
+        <v>37.47</v>
+      </c>
+      <c r="K299">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300" t="s">
+        <v>287</v>
+      </c>
+      <c r="C300">
+        <v>194.7</v>
+      </c>
+      <c r="D300">
+        <v>160.04</v>
+      </c>
+      <c r="E300">
+        <v>41.88</v>
+      </c>
+      <c r="F300">
+        <v>72.69</v>
+      </c>
+      <c r="G300">
+        <v>64.81</v>
+      </c>
+      <c r="H300">
+        <v>2.53</v>
+      </c>
+      <c r="I300">
+        <v>27.74</v>
+      </c>
+      <c r="J300">
+        <v>32.21</v>
+      </c>
+      <c r="K300">
+        <v>75.08</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301" t="s">
+        <v>288</v>
+      </c>
+      <c r="C301">
+        <v>139.46</v>
+      </c>
+      <c r="D301">
+        <v>126.29</v>
+      </c>
+      <c r="E301">
+        <v>26.95</v>
+      </c>
+      <c r="F301">
+        <v>62.41</v>
+      </c>
+      <c r="G301">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="H301">
+        <v>2.05</v>
+      </c>
+      <c r="I301">
+        <v>44.19</v>
+      </c>
+      <c r="J301">
+        <v>61.4</v>
+      </c>
+      <c r="K301">
+        <v>66.03</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302" t="s">
+        <v>289</v>
+      </c>
+      <c r="C302">
+        <v>187.41</v>
+      </c>
+      <c r="D302">
+        <v>166.7</v>
+      </c>
+      <c r="E302">
+        <v>43.32</v>
+      </c>
+      <c r="F302">
+        <v>61.4</v>
+      </c>
+      <c r="G302">
+        <v>61.42</v>
+      </c>
+      <c r="H302">
+        <v>4</v>
+      </c>
+      <c r="I302">
+        <v>22.4</v>
+      </c>
+      <c r="J302">
+        <v>45.53</v>
+      </c>
+      <c r="K302">
         <v>78.61</v>
       </c>
     </row>
